--- a/public/salaries_2018.xlsx
+++ b/public/salaries_2018.xlsx
@@ -35,112 +35,112 @@
     <t>Безопасности труда</t>
   </si>
   <si>
+    <t>Технического обеспечения</t>
+  </si>
+  <si>
+    <t>Управления</t>
+  </si>
+  <si>
     <t>Егорова</t>
   </si>
   <si>
+    <t>Камнев</t>
+  </si>
+  <si>
+    <t>Краснов</t>
+  </si>
+  <si>
+    <t>Кружкин</t>
+  </si>
+  <si>
+    <t>Новосёлов</t>
+  </si>
+  <si>
+    <t>Панин</t>
+  </si>
+  <si>
+    <t>Песков</t>
+  </si>
+  <si>
+    <t>Смирнова</t>
+  </si>
+  <si>
+    <t>Дубов</t>
+  </si>
+  <si>
+    <t>Ефимов</t>
+  </si>
+  <si>
+    <t>Прохоров</t>
+  </si>
+  <si>
+    <t>Смирнов</t>
+  </si>
+  <si>
+    <t>Арбузов</t>
+  </si>
+  <si>
+    <t>Мухин</t>
+  </si>
+  <si>
+    <t>Розов</t>
+  </si>
+  <si>
+    <t>Рябова</t>
+  </si>
+  <si>
+    <t>Титова</t>
+  </si>
+  <si>
     <t>Антонина</t>
   </si>
   <si>
-    <t>Камнев</t>
-  </si>
-  <si>
     <t>Егор</t>
   </si>
   <si>
-    <t>Краснов</t>
-  </si>
-  <si>
     <t>Михаил</t>
   </si>
   <si>
-    <t>Кружкин</t>
-  </si>
-  <si>
     <t>Владимир</t>
   </si>
   <si>
-    <t>Новосёлов</t>
-  </si>
-  <si>
     <t>Ефим</t>
   </si>
   <si>
-    <t>Панин</t>
-  </si>
-  <si>
     <t>Андрей</t>
   </si>
   <si>
-    <t>Песков</t>
-  </si>
-  <si>
     <t>Роман</t>
   </si>
   <si>
-    <t>Смирнова</t>
-  </si>
-  <si>
     <t>Екатерина</t>
   </si>
   <si>
-    <t>Дубов</t>
-  </si>
-  <si>
     <t>Василий</t>
   </si>
   <si>
-    <t>Технического обеспечения</t>
-  </si>
-  <si>
     <t>Сергей</t>
   </si>
   <si>
-    <t>Ефимов</t>
-  </si>
-  <si>
     <t>Анатолий</t>
   </si>
   <si>
-    <t>Прохоров</t>
-  </si>
-  <si>
     <t>Олег</t>
   </si>
   <si>
-    <t>Смирнов</t>
-  </si>
-  <si>
     <t>Иван</t>
   </si>
   <si>
-    <t>Арбузов</t>
-  </si>
-  <si>
     <t>Николай</t>
   </si>
   <si>
-    <t>Управления</t>
-  </si>
-  <si>
-    <t>Мухин</t>
-  </si>
-  <si>
     <t>Антон</t>
   </si>
   <si>
-    <t>Розов</t>
-  </si>
-  <si>
     <t>Илья</t>
   </si>
   <si>
-    <t>Рябова</t>
-  </si>
-  <si>
     <t>Анна</t>
-  </si>
-  <si>
-    <t>Титова</t>
   </si>
   <si>
     <t>Валентина</t>
@@ -151,7 +151,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -161,13 +161,67 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F81BD"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCE6F1"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2DCDB"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBF1DE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE5E0EC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDEADA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -182,9 +236,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="4" fillId="6" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="4" fillId="7" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,7 +560,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G2" sqref="G2:H19"/>
+      <selection activeCell="H2" sqref="H2:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -514,280 +573,265 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="5">
+        <v>107000.0</v>
+      </c>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="D3" s="2"/>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="D4" s="2"/>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="5">
+        <v>203890.0</v>
+      </c>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="D5" s="2"/>
+      <c r="E5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="D6" s="2"/>
+      <c r="E6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="5">
+        <v>118950.0</v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="D7" s="2"/>
+      <c r="E7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="5">
+        <v>150850.0</v>
+      </c>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="D8" s="2"/>
+      <c r="E8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="5">
+        <v>111800.0</v>
+      </c>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="D9" s="2"/>
+      <c r="E9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="5">
+        <v>37600.0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>730090.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="5">
+        <v>50700.0</v>
+      </c>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="D11" s="2"/>
+      <c r="E11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="5">
+        <v>177200.0</v>
+      </c>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="D12" s="2"/>
+      <c r="E12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="5">
+        <v>140500.0</v>
+      </c>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="D13" s="2"/>
+      <c r="E13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="5">
+        <v>44000.0</v>
+      </c>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="D14" s="2"/>
+      <c r="E14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="5">
+        <v>127200.0</v>
+      </c>
+      <c r="H14" s="6">
+        <v>539600.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="D15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1">
-        <v>107000.0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="1">
-        <v>203890.0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="1">
-        <v>118950.0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="1">
-        <v>150850.0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="1">
-        <v>111800.0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="E9" t="s">
+      <c r="E15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="5">
+        <v>81200.0</v>
+      </c>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="D16" s="2"/>
+      <c r="E16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="1">
-        <v>37600.0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>730090.0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="D10" t="s">
+      <c r="F16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="5">
+        <v>144300.0</v>
+      </c>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="D17" s="2"/>
+      <c r="E17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="5">
+        <v>100500.0</v>
+      </c>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="D18" s="2"/>
+      <c r="E18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="5">
+        <v>100900.0</v>
+      </c>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="D19" s="2"/>
+      <c r="E19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="1">
-        <v>50700.0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="E11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="1">
-        <v>177200.0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="E12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="1">
-        <v>140500.0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="E13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="1">
-        <v>44000.0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="E14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="1">
-        <v>127200.0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>539600.0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="D15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="1">
-        <v>81200.0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="E16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" s="1">
-        <v>144300.0</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="E17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="1">
-        <v>100500.0</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="E18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="1">
-        <v>100900.0</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="E19" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="F19" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="5">
         <v>79400.0</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="6">
         <v>506300.0</v>
       </c>
     </row>
